--- a/biology/Zoologie/Cephidae/Cephidae.xlsx
+++ b/biology/Zoologie/Cephidae/Cephidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cephidae sont une famille d'insectes de l'ordre des hyménoptères, du sous-ordre des symphytes (mouches à scie).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 octobre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 octobre 2019) :
 genre Caenocephus Konow, 1896
 genre Calameuta Konow, 1896
 genre Cephus Latreille, 1802
@@ -523,15 +537,15 @@
 genre Pachycephus J. P. E. F. Stein, 1876
 genre Syrista Konow, 1896
 genre Trachelus Jurine, 1807
-Selon Catalogue of Life                                   (12 octobre 2019)[2] :
+Selon Catalogue of Life                                   (12 octobre 2019) :
 genre Cephus
 genre Janus
 genre Trachelus
-Selon ITIS      (12 octobre 2019)[3] :
+Selon ITIS      (12 octobre 2019) :
 genre Cephus Latreille, 1802
 genre Janus Stephens, 1829
 genre Trachelus Jurine, 1807
-Selon NCBI  (12 mars 2024)[4] :
+Selon NCBI  (12 mars 2024) :
 genre Caenocephus
 genre Calameuta
 genre Cephus
